--- a/fantasybball.xlsx
+++ b/fantasybball.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Jupyter Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Jupyter Notebooks\fantasybball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1873956-30BE-4476-BB2F-85679D2E670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B4362A-E81C-44EA-9CDE-FCC543B5CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED25856A-56AE-47EF-818C-0E6EEEF60045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ED25856A-56AE-47EF-818C-0E6EEEF60045}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>FG%</t>
   </si>
@@ -474,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44CAAF2-FAE5-498F-85C1-C4AC3C9E4527}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -975,4 +976,510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8D74E7-6044-47CB-A925-30E1C7019A7C}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>133</v>
+      </c>
+      <c r="G2" s="1">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1">
+        <v>524</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1035</v>
+      </c>
+      <c r="L2" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1">
+        <v>198</v>
+      </c>
+      <c r="F3" s="1">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1">
+        <v>549</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1021</v>
+      </c>
+      <c r="L3" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.48830000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1">
+        <v>205</v>
+      </c>
+      <c r="F4" s="1">
+        <v>134</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1">
+        <v>601</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1049</v>
+      </c>
+      <c r="L4" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>198</v>
+      </c>
+      <c r="F5" s="1">
+        <v>154</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1">
+        <v>572</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1041</v>
+      </c>
+      <c r="L5" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1">
+        <v>141</v>
+      </c>
+      <c r="F6" s="1">
+        <v>149</v>
+      </c>
+      <c r="G6" s="1">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1">
+        <v>654</v>
+      </c>
+      <c r="K6" s="1">
+        <v>961</v>
+      </c>
+      <c r="L6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5151</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1">
+        <v>180</v>
+      </c>
+      <c r="F7" s="1">
+        <v>122</v>
+      </c>
+      <c r="G7" s="1">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>66</v>
+      </c>
+      <c r="J7" s="1">
+        <v>610</v>
+      </c>
+      <c r="K7" s="1">
+        <v>990</v>
+      </c>
+      <c r="L7" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1">
+        <v>177</v>
+      </c>
+      <c r="F8" s="1">
+        <v>153</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1">
+        <v>530</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="L8" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.7792</v>
+      </c>
+      <c r="D9" s="1">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1">
+        <v>222</v>
+      </c>
+      <c r="F9" s="1">
+        <v>79</v>
+      </c>
+      <c r="G9" s="1">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1">
+        <v>502</v>
+      </c>
+      <c r="K9" s="1">
+        <v>947</v>
+      </c>
+      <c r="L9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1">
+        <v>186</v>
+      </c>
+      <c r="F10" s="1">
+        <v>139</v>
+      </c>
+      <c r="G10" s="1">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1">
+        <v>670</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1063</v>
+      </c>
+      <c r="L10" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1">
+        <v>201</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1">
+        <v>605</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1035</v>
+      </c>
+      <c r="L11" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
+        <v>215</v>
+      </c>
+      <c r="F12" s="1">
+        <v>119</v>
+      </c>
+      <c r="G12" s="1">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1">
+        <v>577</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1013</v>
+      </c>
+      <c r="L12" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.4491</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1">
+        <v>223</v>
+      </c>
+      <c r="F13" s="1">
+        <v>134</v>
+      </c>
+      <c r="G13" s="1">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1">
+        <v>63</v>
+      </c>
+      <c r="J13" s="1">
+        <v>484</v>
+      </c>
+      <c r="K13" s="1">
+        <v>953</v>
+      </c>
+      <c r="L13" s="1">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fantasybball.xlsx
+++ b/fantasybball.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Jupyter Notebooks\fantasybball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B4362A-E81C-44EA-9CDE-FCC543B5CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DE311B-9F7C-4A78-BE5F-78237D1F21FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ED25856A-56AE-47EF-818C-0E6EEEF60045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{ED25856A-56AE-47EF-818C-0E6EEEF60045}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
     <sheet name="Week 5" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 6" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>FG%</t>
   </si>
@@ -982,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8D74E7-6044-47CB-A925-30E1C7019A7C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1482,4 +1483,510 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150DA105-2665-45A6-B587-914E66147413}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1">
+        <v>179</v>
+      </c>
+      <c r="F2" s="1">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1">
+        <v>512</v>
+      </c>
+      <c r="K2" s="1">
+        <v>819</v>
+      </c>
+      <c r="L2" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>183</v>
+      </c>
+      <c r="F3" s="1">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1">
+        <v>377</v>
+      </c>
+      <c r="K3" s="1">
+        <v>853</v>
+      </c>
+      <c r="L3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4955</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>164</v>
+      </c>
+      <c r="F4" s="1">
+        <v>137</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1">
+        <v>587</v>
+      </c>
+      <c r="K4" s="1">
+        <v>960</v>
+      </c>
+      <c r="L4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.7823</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>222</v>
+      </c>
+      <c r="F5" s="1">
+        <v>160</v>
+      </c>
+      <c r="G5" s="1">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>81</v>
+      </c>
+      <c r="J5" s="1">
+        <v>571</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1030</v>
+      </c>
+      <c r="L5" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>166</v>
+      </c>
+      <c r="F6" s="1">
+        <v>113</v>
+      </c>
+      <c r="G6" s="1">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1">
+        <v>484</v>
+      </c>
+      <c r="K6" s="1">
+        <v>889</v>
+      </c>
+      <c r="L6" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5091</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1">
+        <v>239</v>
+      </c>
+      <c r="F7" s="1">
+        <v>146</v>
+      </c>
+      <c r="G7" s="1">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1">
+        <v>578</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1058</v>
+      </c>
+      <c r="L7" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1">
+        <v>155</v>
+      </c>
+      <c r="G8" s="1">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1">
+        <v>572</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1010</v>
+      </c>
+      <c r="L8" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.4849</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.7944</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>223</v>
+      </c>
+      <c r="F9" s="1">
+        <v>142</v>
+      </c>
+      <c r="G9" s="1">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>62</v>
+      </c>
+      <c r="J9" s="1">
+        <v>553</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1102</v>
+      </c>
+      <c r="L9" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.48309999999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="1">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1">
+        <v>184</v>
+      </c>
+      <c r="F10" s="1">
+        <v>157</v>
+      </c>
+      <c r="G10" s="1">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1">
+        <v>560</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1027</v>
+      </c>
+      <c r="L10" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.4607</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>204</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1">
+        <v>649</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1042</v>
+      </c>
+      <c r="L11" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="D12" s="1">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1">
+        <v>135</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1">
+        <v>519</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1058</v>
+      </c>
+      <c r="L12" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.8629</v>
+      </c>
+      <c r="D13" s="1">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>206</v>
+      </c>
+      <c r="F13" s="1">
+        <v>119</v>
+      </c>
+      <c r="G13" s="1">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1">
+        <v>677</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1038</v>
+      </c>
+      <c r="L13" s="1">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>